--- a/cypress/downloads/Material.xlsx
+++ b/cypress/downloads/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Factory</t>
   </si>
@@ -26,19 +26,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Cavity</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Part Name</t>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>Component Number</t>
+  </si>
+  <si>
+    <t>Component Name</t>
   </si>
   <si>
     <t>Qty Total</t>
   </si>
   <si>
-    <t>PT XXX</t>
+    <t>XYZ</t>
   </si>
   <si>
     <t>AREA 07</t>
@@ -47,43 +47,43 @@
     <t>SH22L-10</t>
   </si>
   <si>
+    <t>SULVUS 0.5 La Br</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La G</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La L</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La Lg</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La P</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La R</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La Sb</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La V</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La W</t>
+  </si>
+  <si>
+    <t>SULVUS 0.75 La B</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La Y</t>
+  </si>
+  <si>
     <t>SULVUS 0.5 La</t>
   </si>
   <si>
-    <t>SULVUS 0.5 La-B</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Br</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-G</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-L</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Lg</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-P</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-R</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Sb</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-V</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-W</t>
-  </si>
-  <si>
-    <t>SULVUS 0.75 La-B</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Y</t>
+    <t>SULVUS 0.5 La B</t>
   </si>
   <si>
     <t>PA 2241B</t>
@@ -95,253 +95,220 @@
     <t>ASRCF AR D01</t>
   </si>
   <si>
-    <t>OURRX-C 1.25 R</t>
-  </si>
-  <si>
-    <t>OURRX-C 1.25 L</t>
-  </si>
-  <si>
-    <t>PATC-GY 12X50</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 G</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 L</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 P</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 R</t>
-  </si>
-  <si>
-    <t>PATC-LG 12X50</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 W-B</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 Y</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 B</t>
+    <t>OURRX C 1.25 R</t>
+  </si>
+  <si>
+    <t>OURRX C 1.25 L</t>
+  </si>
+  <si>
+    <t>PATC GY 12X50</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 G</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 L</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 P</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 R</t>
+  </si>
+  <si>
+    <t>PATC LG 12X50</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 W B</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 Y</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 B</t>
   </si>
   <si>
     <t>1140-7095-KE</t>
   </si>
   <si>
-    <t>OPRR-C 2.0 Gy</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 W</t>
+    <t>OPRR C 2.0 Gy</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 W</t>
   </si>
   <si>
     <t>SH33Z-01</t>
   </si>
   <si>
-    <t>OURRX-C 1.25 B</t>
-  </si>
-  <si>
-    <t>OURRX-C 1.25 G</t>
-  </si>
-  <si>
-    <t>OURRX-C 1.25 P</t>
-  </si>
-  <si>
-    <t>ND2001-TR 09</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 Br</t>
-  </si>
-  <si>
-    <t>VACS 0.85 B</t>
-  </si>
-  <si>
-    <t>VACS 0.85 G</t>
-  </si>
-  <si>
-    <t>VACS 0.85 P</t>
-  </si>
-  <si>
-    <t>VACS 0.85 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 P</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 G</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 L</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 R</t>
-  </si>
-  <si>
-    <t>CB-B D2x2 L=40</t>
-  </si>
-  <si>
-    <t>OPRRH-C 0.75 W-B</t>
-  </si>
-  <si>
-    <t>CB-B H5x3 L=500</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 W</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 B</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 G</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 L</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Gy</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Lg</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 P</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 R</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 W</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Br</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Y</t>
-  </si>
-  <si>
-    <t>IVSSH-C 0.75 L</t>
-  </si>
-  <si>
-    <t>IVSSH-C 0.75 W</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 B</t>
+    <t>OURRX C 1.25 B</t>
+  </si>
+  <si>
+    <t>OURRX C 1.25 G</t>
+  </si>
+  <si>
+    <t>OURRX C 1.25 P</t>
+  </si>
+  <si>
+    <t>ND2001-TR-09</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 Br</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 P</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 G</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 L</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 R</t>
+  </si>
+  <si>
+    <t>CB B D2x2 L=40</t>
+  </si>
+  <si>
+    <t>OPRRH C 0.75 W B</t>
+  </si>
+  <si>
+    <t>CB B H5x3 L=500</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 W</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 B</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 G</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 L</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Gy</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Lg</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 P</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 R</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 W</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Br</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Y</t>
+  </si>
+  <si>
+    <t>AISSH C 0.75 L</t>
+  </si>
+  <si>
+    <t>AISSH C 0.75 W</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 B</t>
   </si>
   <si>
     <t>SH33Z-02</t>
   </si>
   <si>
-    <t>CIVIC 0.35 Gy</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 P</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 Sb</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 W</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 Y</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 G</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 L</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 Lg</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 R</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 V</t>
-  </si>
-  <si>
-    <t>VACS 0.5 L</t>
-  </si>
-  <si>
-    <t>IVSSH-C 0.5 R</t>
-  </si>
-  <si>
-    <t>VACS 0.3 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 L</t>
-  </si>
-  <si>
-    <t>VACS 0.5 Br</t>
-  </si>
-  <si>
-    <t>VACS 0.5 R</t>
-  </si>
-  <si>
-    <t>VACS 0.5 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 G</t>
-  </si>
-  <si>
-    <t>VACS 0.5 B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Lg</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 P</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 R</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Br</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Sb</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 V</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 W</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Y</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Gy</t>
+    <t>BIVIC 0.35 Gy</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 P</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 Sb</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 W</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 Y</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 G</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 L</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 Lg</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 R</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 V</t>
+  </si>
+  <si>
+    <t>AISSH C 0.5 R</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 L</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 G</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Lg</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 P</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 R</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Br</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Sb</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 V</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 W</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Y</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Gy</t>
   </si>
   <si>
     <t>SH22L-04</t>
   </si>
   <si>
-    <t>CIVIC 0.35 Be</t>
-  </si>
-  <si>
-    <t>VACS 0.5 W</t>
+    <t>BIVIC 0.35 Be</t>
   </si>
 </sst>
 </file>
@@ -691,7 +658,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -704,7 +671,7 @@
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -748,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -808,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>3000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -848,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>2250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -928,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="G11">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -948,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <v>3000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -968,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -988,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="G14">
-        <v>2250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1045,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17">
         <v>3000</v>
@@ -1065,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>3000</v>
@@ -1125,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>3000</v>
@@ -1145,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>3000</v>
@@ -1165,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G23">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1185,10 +1152,7 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>3000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1205,10 +1169,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G25">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1225,7 +1189,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1233,19 +1200,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <v>3000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1253,19 +1220,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <v>3000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1282,7 +1249,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G29">
         <v>800</v>
@@ -1302,10 +1269,10 @@
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1322,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31">
-        <v>800</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1342,10 +1309,10 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1362,10 +1329,10 @@
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <v>125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1382,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>375</v>
@@ -1402,10 +1369,10 @@
         <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G35">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1422,10 +1389,10 @@
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>375</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1442,10 +1409,10 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1462,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>500</v>
@@ -1482,10 +1449,10 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1505,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="G40">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1522,10 +1489,10 @@
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G41">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1542,10 +1509,7 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1562,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>500</v>
@@ -1582,7 +1546,10 @@
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1599,7 +1566,7 @@
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>500</v>
@@ -1619,10 +1586,10 @@
         <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1639,7 +1606,7 @@
         <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>500</v>
@@ -1659,10 +1626,10 @@
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1676,10 +1643,10 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>500</v>
@@ -1696,10 +1663,10 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>500</v>
@@ -1719,10 +1686,7 @@
         <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51">
-        <v>500</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1739,10 +1703,10 @@
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G52">
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1759,7 +1723,10 @@
         <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="G53">
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1776,10 +1743,10 @@
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G54">
-        <v>120</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1796,10 +1763,10 @@
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G55">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1816,10 +1783,10 @@
         <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>400</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1836,10 +1803,10 @@
         <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G57">
-        <v>250</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1856,10 +1823,10 @@
         <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G58">
-        <v>125</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1876,10 +1843,10 @@
         <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G59">
-        <v>500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1896,10 +1863,10 @@
         <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1916,10 +1883,10 @@
         <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G61">
-        <v>750</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1936,7 +1903,7 @@
         <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62">
         <v>750</v>
@@ -1956,7 +1923,7 @@
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G63">
         <v>375</v>
@@ -1976,10 +1943,10 @@
         <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G64">
-        <v>375</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1996,10 +1963,10 @@
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G65">
-        <v>375</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2016,10 +1983,10 @@
         <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G66">
-        <v>375</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2036,10 +2003,10 @@
         <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G67">
-        <v>125</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2056,10 +2023,10 @@
         <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G68">
-        <v>750</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2076,10 +2043,10 @@
         <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G69">
-        <v>375</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2096,10 +2063,10 @@
         <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G70">
-        <v>1400</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2116,10 +2083,10 @@
         <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G71">
-        <v>1600</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2136,10 +2103,10 @@
         <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G72">
-        <v>1200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2156,10 +2123,10 @@
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G73">
-        <v>1600</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2176,10 +2143,10 @@
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>1250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2196,10 +2163,10 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G75">
-        <v>625</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2216,10 +2183,10 @@
         <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G76">
-        <v>2000</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2236,10 +2203,10 @@
         <v>40</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G77">
-        <v>2000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2256,10 +2223,10 @@
         <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G78">
-        <v>2000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2276,10 +2243,10 @@
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G79">
-        <v>2000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2296,10 +2263,10 @@
         <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G80">
-        <v>2625</v>
+        <v>750</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2316,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G81">
-        <v>2625</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2336,10 +2303,10 @@
         <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G82">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2356,10 +2323,10 @@
         <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G83">
-        <v>2250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2376,10 +2343,10 @@
         <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G84">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2396,10 +2363,10 @@
         <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G85">
-        <v>3000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2416,10 +2383,10 @@
         <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G86">
-        <v>2625</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2436,10 +2403,10 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G87">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2456,10 +2423,10 @@
         <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G88">
-        <v>250</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2476,10 +2443,10 @@
         <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G89">
-        <v>250</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2496,10 +2463,10 @@
         <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G90">
-        <v>750</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2516,10 +2483,10 @@
         <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G91">
-        <v>250</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2536,10 +2503,10 @@
         <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G92">
-        <v>1000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2556,10 +2523,10 @@
         <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G93">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2576,10 +2543,10 @@
         <v>40</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G94">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2596,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G95">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2616,7 +2583,7 @@
         <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G96">
         <v>1000</v>
@@ -2636,10 +2603,10 @@
         <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G97">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2656,10 +2623,10 @@
         <v>40</v>
       </c>
       <c r="E98" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G98">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2676,10 +2643,10 @@
         <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G99">
-        <v>650</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2696,10 +2663,10 @@
         <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G100">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2716,10 +2683,10 @@
         <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G101">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2736,10 +2703,10 @@
         <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G102">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2756,10 +2723,10 @@
         <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G103">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2776,10 +2743,10 @@
         <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G104">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2796,7 +2763,7 @@
         <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G105">
         <v>1000</v>
@@ -2816,10 +2783,10 @@
         <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G106">
-        <v>1000</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2836,10 +2803,7 @@
         <v>40</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
-      </c>
-      <c r="G107">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2856,10 +2820,10 @@
         <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G108">
-        <v>1000</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2876,10 +2840,10 @@
         <v>40</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G109">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2896,10 +2860,10 @@
         <v>40</v>
       </c>
       <c r="E110" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G110">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2916,10 +2880,10 @@
         <v>40</v>
       </c>
       <c r="E111" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G111">
-        <v>1000</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2936,10 +2900,10 @@
         <v>40</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G112">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2953,13 +2917,13 @@
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G113">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2973,13 +2937,13 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G114">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2993,13 +2957,13 @@
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G115">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3013,13 +2977,13 @@
         <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="G116">
-        <v>125</v>
+        <v>750</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3033,10 +2997,13 @@
         <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+      <c r="G117">
+        <v>3000</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3050,13 +3017,13 @@
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G118">
-        <v>375</v>
+        <v>750</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3070,13 +3037,13 @@
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G119">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3090,13 +3057,13 @@
         <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G120">
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3110,13 +3077,13 @@
         <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G121">
-        <v>375</v>
+        <v>750</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3130,13 +3097,13 @@
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E122" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G122">
-        <v>3000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3150,10 +3117,10 @@
         <v>23</v>
       </c>
       <c r="D123" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G123">
         <v>3000</v>
@@ -3170,13 +3137,13 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G124">
-        <v>3000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3190,10 +3157,10 @@
         <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E125" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G125">
         <v>3000</v>
@@ -3210,13 +3177,13 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G126">
-        <v>750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3230,10 +3197,10 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G127">
         <v>3000</v>
@@ -3250,13 +3217,13 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G128">
-        <v>750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3270,13 +3237,13 @@
         <v>23</v>
       </c>
       <c r="D129" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" t="s">
         <v>74</v>
       </c>
-      <c r="E129" t="s">
-        <v>81</v>
-      </c>
       <c r="G129">
-        <v>750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3290,10 +3257,10 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G130">
         <v>3000</v>
@@ -3310,13 +3277,13 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E131" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G131">
-        <v>750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3330,13 +3297,13 @@
         <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G132">
-        <v>750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3350,10 +3317,10 @@
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E133" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G133">
         <v>3000</v>
@@ -3370,13 +3337,13 @@
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E134" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G134">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3390,13 +3357,13 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G135">
-        <v>1800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3410,13 +3377,13 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E136" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G136">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3430,13 +3397,13 @@
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E137" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G137">
-        <v>3000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3450,13 +3417,13 @@
         <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E138" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G138">
-        <v>3000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3470,13 +3437,13 @@
         <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E139" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G139">
-        <v>3000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3490,13 +3457,13 @@
         <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E140" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G140">
-        <v>3000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3510,13 +3477,13 @@
         <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E141" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G141">
-        <v>3000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3530,13 +3497,13 @@
         <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E142" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G142">
-        <v>3000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3550,13 +3517,13 @@
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G143">
-        <v>3000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3570,13 +3537,13 @@
         <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E144" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G144">
-        <v>3000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3590,13 +3557,13 @@
         <v>23</v>
       </c>
       <c r="D145" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G145">
-        <v>3000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3610,13 +3577,13 @@
         <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E146" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G146">
-        <v>3000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3630,13 +3597,13 @@
         <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G147">
-        <v>3000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3650,13 +3617,13 @@
         <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E148" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G148">
-        <v>3000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3670,13 +3637,13 @@
         <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E149" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G149">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3690,13 +3657,13 @@
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E150" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G150">
-        <v>1800</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3710,13 +3677,13 @@
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E151" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G151">
-        <v>2000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3730,13 +3697,13 @@
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E152" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G152">
-        <v>550</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3750,13 +3717,13 @@
         <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E153" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G153">
-        <v>375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3770,13 +3737,13 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E154" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G154">
-        <v>375</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3790,13 +3757,13 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E155" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G155">
-        <v>1125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3810,13 +3777,13 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E156" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G156">
-        <v>550</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3830,13 +3797,13 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G157">
-        <v>375</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3850,13 +3817,13 @@
         <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E158" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G158">
-        <v>1100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3870,13 +3837,13 @@
         <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E159" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G159">
-        <v>1650</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3890,13 +3857,13 @@
         <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E160" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G160">
-        <v>1100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3910,13 +3877,13 @@
         <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E161" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G161">
-        <v>1650</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3930,13 +3897,13 @@
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E162" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G162">
-        <v>550</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3950,13 +3917,13 @@
         <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E163" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G163">
-        <v>550</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3970,13 +3937,13 @@
         <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E164" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G164">
-        <v>1100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3990,13 +3957,13 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E165" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G165">
-        <v>550</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4010,13 +3977,13 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E166" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G166">
-        <v>1650</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4030,13 +3997,13 @@
         <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E167" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="G167">
-        <v>1100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4050,13 +4017,13 @@
         <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E168" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G168">
-        <v>1650</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4070,13 +4037,13 @@
         <v>23</v>
       </c>
       <c r="D169" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E169" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G169">
-        <v>2200</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4090,13 +4057,13 @@
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E170" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G170">
-        <v>1500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4110,13 +4077,13 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E171" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G171">
-        <v>1500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4130,13 +4097,13 @@
         <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E172" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G172">
-        <v>1500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4150,13 +4117,13 @@
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E173" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G173">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4170,13 +4137,13 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" t="s">
         <v>74</v>
       </c>
-      <c r="E174" t="s">
-        <v>94</v>
-      </c>
       <c r="G174">
-        <v>100</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4190,13 +4157,13 @@
         <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E175" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G175">
-        <v>100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4210,13 +4177,13 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E176" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G176">
-        <v>10</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4230,13 +4197,13 @@
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E177" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G177">
-        <v>100</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4250,13 +4217,13 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E178" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G178">
-        <v>100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4270,13 +4237,13 @@
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E179" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G179">
-        <v>1000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4290,13 +4257,10 @@
         <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E180" t="s">
-        <v>100</v>
-      </c>
-      <c r="G180">
-        <v>2200</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4310,13 +4274,13 @@
         <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E181" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G181">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4330,13 +4294,13 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E182" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="G182">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4350,13 +4314,13 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E183" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G183">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4370,13 +4334,13 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E184" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G184">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4390,13 +4354,13 @@
         <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E185" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G185">
-        <v>2200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4410,10 +4374,10 @@
         <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G186">
         <v>3000</v>
@@ -4430,469 +4394,12 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E187" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G187">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" t="s">
-        <v>23</v>
-      </c>
-      <c r="C188" t="s">
-        <v>23</v>
-      </c>
-      <c r="D188" t="s">
-        <v>106</v>
-      </c>
-      <c r="E188" t="s">
-        <v>81</v>
-      </c>
-      <c r="G188">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" t="s">
-        <v>23</v>
-      </c>
-      <c r="C189" t="s">
-        <v>23</v>
-      </c>
-      <c r="D189" t="s">
-        <v>106</v>
-      </c>
-      <c r="E189" t="s">
-        <v>75</v>
-      </c>
-      <c r="G189">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" t="s">
-        <v>23</v>
-      </c>
-      <c r="D190" t="s">
-        <v>106</v>
-      </c>
-      <c r="E190" t="s">
-        <v>82</v>
-      </c>
-      <c r="G190">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" t="s">
-        <v>23</v>
-      </c>
-      <c r="D191" t="s">
-        <v>106</v>
-      </c>
-      <c r="E191" t="s">
-        <v>83</v>
-      </c>
-      <c r="G191">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" t="s">
-        <v>23</v>
-      </c>
-      <c r="C192" t="s">
-        <v>23</v>
-      </c>
-      <c r="D192" t="s">
-        <v>106</v>
-      </c>
-      <c r="E192" t="s">
-        <v>76</v>
-      </c>
-      <c r="G192">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" t="s">
-        <v>23</v>
-      </c>
-      <c r="C193" t="s">
-        <v>23</v>
-      </c>
-      <c r="D193" t="s">
-        <v>106</v>
-      </c>
-      <c r="E193" t="s">
-        <v>84</v>
-      </c>
-      <c r="G193">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" t="s">
-        <v>7</v>
-      </c>
-      <c r="B194" t="s">
-        <v>23</v>
-      </c>
-      <c r="C194" t="s">
-        <v>23</v>
-      </c>
-      <c r="D194" t="s">
-        <v>106</v>
-      </c>
-      <c r="E194" t="s">
-        <v>77</v>
-      </c>
-      <c r="G194">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" t="s">
-        <v>23</v>
-      </c>
-      <c r="C195" t="s">
-        <v>23</v>
-      </c>
-      <c r="D195" t="s">
-        <v>106</v>
-      </c>
-      <c r="E195" t="s">
-        <v>85</v>
-      </c>
-      <c r="G195">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" t="s">
-        <v>7</v>
-      </c>
-      <c r="B196" t="s">
-        <v>23</v>
-      </c>
-      <c r="C196" t="s">
-        <v>23</v>
-      </c>
-      <c r="D196" t="s">
-        <v>106</v>
-      </c>
-      <c r="E196" t="s">
-        <v>78</v>
-      </c>
-      <c r="G196">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" t="s">
-        <v>23</v>
-      </c>
-      <c r="C197" t="s">
-        <v>23</v>
-      </c>
-      <c r="D197" t="s">
-        <v>106</v>
-      </c>
-      <c r="E197" t="s">
-        <v>79</v>
-      </c>
-      <c r="G197">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" t="s">
-        <v>23</v>
-      </c>
-      <c r="C198" t="s">
-        <v>23</v>
-      </c>
-      <c r="D198" t="s">
-        <v>106</v>
-      </c>
-      <c r="E198" t="s">
-        <v>80</v>
-      </c>
-      <c r="G198">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" t="s">
-        <v>23</v>
-      </c>
-      <c r="C199" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" t="s">
-        <v>106</v>
-      </c>
-      <c r="E199" t="s">
-        <v>104</v>
-      </c>
-      <c r="G199">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" t="s">
-        <v>23</v>
-      </c>
-      <c r="C200" t="s">
-        <v>23</v>
-      </c>
-      <c r="D200" t="s">
-        <v>106</v>
-      </c>
-      <c r="E200" t="s">
-        <v>108</v>
-      </c>
-      <c r="G200">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201" t="s">
-        <v>106</v>
-      </c>
-      <c r="E201" t="s">
-        <v>99</v>
-      </c>
-      <c r="G201">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" t="s">
-        <v>23</v>
-      </c>
-      <c r="C202" t="s">
-        <v>23</v>
-      </c>
-      <c r="D202" t="s">
-        <v>106</v>
-      </c>
-      <c r="E202" t="s">
-        <v>93</v>
-      </c>
-      <c r="G202">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" t="s">
-        <v>106</v>
-      </c>
-      <c r="E203" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204" t="s">
-        <v>23</v>
-      </c>
-      <c r="C204" t="s">
-        <v>23</v>
-      </c>
-      <c r="D204" t="s">
-        <v>106</v>
-      </c>
-      <c r="E204" t="s">
-        <v>107</v>
-      </c>
-      <c r="G204">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" t="s">
-        <v>23</v>
-      </c>
-      <c r="C205" t="s">
-        <v>23</v>
-      </c>
-      <c r="D205" t="s">
-        <v>106</v>
-      </c>
-      <c r="E205" t="s">
-        <v>81</v>
-      </c>
-      <c r="G205">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" t="s">
-        <v>7</v>
-      </c>
-      <c r="B206" t="s">
-        <v>23</v>
-      </c>
-      <c r="C206" t="s">
-        <v>23</v>
-      </c>
-      <c r="D206" t="s">
-        <v>106</v>
-      </c>
-      <c r="E206" t="s">
-        <v>75</v>
-      </c>
-      <c r="G206">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" t="s">
-        <v>7</v>
-      </c>
-      <c r="B207" t="s">
-        <v>23</v>
-      </c>
-      <c r="C207" t="s">
-        <v>23</v>
-      </c>
-      <c r="D207" t="s">
-        <v>106</v>
-      </c>
-      <c r="E207" t="s">
-        <v>82</v>
-      </c>
-      <c r="G207">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" t="s">
-        <v>23</v>
-      </c>
-      <c r="C208" t="s">
-        <v>23</v>
-      </c>
-      <c r="D208" t="s">
-        <v>106</v>
-      </c>
-      <c r="E208" t="s">
-        <v>83</v>
-      </c>
-      <c r="G208">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" t="s">
-        <v>23</v>
-      </c>
-      <c r="C209" t="s">
-        <v>23</v>
-      </c>
-      <c r="D209" t="s">
-        <v>106</v>
-      </c>
-      <c r="E209" t="s">
-        <v>76</v>
-      </c>
-      <c r="G209">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" t="s">
-        <v>23</v>
-      </c>
-      <c r="C210" t="s">
-        <v>23</v>
-      </c>
-      <c r="D210" t="s">
-        <v>106</v>
-      </c>
-      <c r="E210" t="s">
-        <v>84</v>
-      </c>
-      <c r="G210">
         <v>3000</v>
       </c>
     </row>
